--- a/output/q_ALR.xlsx
+++ b/output/q_ALR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -83,24 +83,24 @@
     <t>cutaneo_lat_coxa_nervo_bloq</t>
   </si>
   <si>
+    <t>gluteo_sup_nervo_bloq</t>
+  </si>
+  <si>
+    <t>PECS_II</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>ciatico_nervo_bloq</t>
+  </si>
+  <si>
+    <t>popliteo_ciatico_nervo_bloq</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>gluteo_sup_nervo_bloq</t>
-  </si>
-  <si>
-    <t>PECS_II</t>
-  </si>
-  <si>
-    <t>TAP</t>
-  </si>
-  <si>
-    <t>ciatico_nervo_bloq</t>
-  </si>
-  <si>
-    <t>popliteo_ciatico_nervo_bloq</t>
-  </si>
-  <si>
     <t>plexo_braquial_bloq</t>
   </si>
   <si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>4</t>
@@ -241,10 +244,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -255,10 +258,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -353,10 +356,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -367,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -381,10 +384,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -395,10 +398,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -409,10 +412,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -423,10 +426,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -437,10 +440,10 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -451,10 +454,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -465,10 +468,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -479,10 +482,10 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -493,10 +496,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -507,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -521,10 +524,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -535,10 +538,10 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -549,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -563,10 +566,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -577,10 +580,10 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -591,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -605,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -619,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -633,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -647,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -661,10 +664,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -675,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -689,10 +692,10 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -703,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -717,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -731,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -745,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -759,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -773,10 +776,10 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -787,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -801,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -815,10 +818,10 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -829,10 +832,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -843,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -857,10 +860,10 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -871,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -885,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -899,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -913,10 +916,10 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
@@ -927,10 +930,10 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -941,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +961,7 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -969,10 +972,10 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -983,10 +986,10 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -997,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -1011,10 +1014,10 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -1022,391 +1025,517 @@
         <v>49.0</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>62.0</v>
+        <v>68.0</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>62.0</v>
+        <v>69.0</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>63.0</v>
+        <v>70.0</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>63.0</v>
+        <v>70.0</v>
       </c>
       <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B96" t="s">
         <v>20</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C96" t="s">
         <v>31</v>
       </c>
-      <c r="D87" t="s">
-        <v>42</v>
+      <c r="D96" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/output/q_ALR.xlsx
+++ b/output/q_ALR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -1151,27 +1151,27 @@
         <v>58.0</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -1179,32 +1179,32 @@
         <v>59.0</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1232,35 +1232,35 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -1316,35 +1316,35 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -1386,155 +1386,407 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>71.0</v>
+        <v>77.0</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>71.0</v>
+        <v>77.0</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>72.0</v>
+        <v>78.0</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>72.0</v>
+        <v>79.0</v>
       </c>
       <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B114" t="s">
         <v>20</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C114" t="s">
         <v>31</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D114" t="s">
         <v>43</v>
       </c>
     </row>
